--- a/descstatistics1.xlsx
+++ b/descstatistics1.xlsx
@@ -1,137 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foued Azuz 14\OneDrive\ukrain war\ukrainn war\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EF359-29E0-4ED0-B413-CCF387442669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>rownames(desc)</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>skew</t>
-  </si>
-  <si>
-    <t>kurt</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>NaturalGas</t>
-  </si>
-  <si>
-    <t>Soybean</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Agentina</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Ethereum</t>
-  </si>
-  <si>
-    <t>Southkorea</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Tehther</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,313 +350,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rownames(desc)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>skew</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
       </c>
       <c r="B2">
-        <v>3.1462475374804982E-4</v>
+        <v>0.0003146247537480498</v>
       </c>
       <c r="C2">
-        <v>1.490234178261074E-2</v>
+        <v>0.01490234178261074</v>
       </c>
       <c r="D2">
-        <v>3.6121948088130301E-4</v>
+        <v>0.000361219480881303</v>
       </c>
       <c r="E2">
-        <v>-0.15993026567604399</v>
+        <v>-0.159930265676044</v>
       </c>
       <c r="F2">
-        <v>0.13022281024270829</v>
+        <v>0.1302228102427083</v>
       </c>
       <c r="G2">
-        <v>-0.45587663705688319</v>
+        <v>-0.4558766370568832</v>
       </c>
       <c r="H2">
-        <v>12.988150843706141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>12.98815084370614</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B3">
-        <v>1.9338785010064791E-4</v>
+        <v>0.0001933878477157977</v>
       </c>
       <c r="C3">
-        <v>1.2881441298049461E-2</v>
+        <v>0.01288144128400671</v>
       </c>
       <c r="D3">
-        <v>7.5833360887855861E-4</v>
+        <v>0.0007583328737776895</v>
       </c>
       <c r="E3">
-        <v>-9.9072535887911428E-2</v>
+        <v>-0.09907253647356296</v>
       </c>
       <c r="F3">
-        <v>8.7545178988095884E-2</v>
+        <v>0.08754517978127918</v>
       </c>
       <c r="G3">
-        <v>-0.31462473343747083</v>
+        <v>-0.3146247467296642</v>
       </c>
       <c r="H3">
-        <v>7.6133166522093907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>7.613316760064754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NaturalGas</t>
+        </is>
       </c>
       <c r="B4">
-        <v>3.676613188923849E-5</v>
+        <v>8.933844890542082e-06</v>
       </c>
       <c r="C4">
-        <v>3.215991950782672E-2</v>
+        <v>0.03215870531903362</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.30047976257842501</v>
+        <v>-0.300479754424231</v>
       </c>
       <c r="F4">
-        <v>0.38172675910325998</v>
+        <v>0.3817267493869265</v>
       </c>
       <c r="G4">
-        <v>0.34207569174874553</v>
+        <v>0.3425857735825468</v>
       </c>
       <c r="H4">
-        <v>15.635342307292589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
+        <v>15.65622036170025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soybean</t>
+        </is>
       </c>
       <c r="B5">
-        <v>2.7865893978968432E-4</v>
+        <v>0.0002786589397896843</v>
       </c>
       <c r="C5">
-        <v>1.3700449605135679E-2</v>
+        <v>0.01370044960513568</v>
       </c>
       <c r="D5">
-        <v>8.1989877981047954E-4</v>
+        <v>0.0008198987798104795</v>
       </c>
       <c r="E5">
         <v>-0.1049522690712212</v>
       </c>
       <c r="F5">
-        <v>6.4262697111550082E-2</v>
+        <v>0.06426269711155008</v>
       </c>
       <c r="G5">
-        <v>-0.84813114185168015</v>
+        <v>-0.8481311418516801</v>
       </c>
       <c r="H5">
-        <v>9.7133147002305353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
+        <v>9.713314700230535</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
       </c>
       <c r="B6">
-        <v>2.7723882816910818E-4</v>
+        <v>0.0002772388280870239</v>
       </c>
       <c r="C6">
-        <v>1.2966381063445619E-2</v>
+        <v>0.01296638106328004</v>
       </c>
       <c r="D6">
-        <v>5.8375347444439285E-4</v>
+        <v>0.0005837534583896797</v>
       </c>
       <c r="E6">
-        <v>-0.1115343165792471</v>
+        <v>-0.1115343166618032</v>
       </c>
       <c r="F6">
-        <v>7.7313761617828547E-2</v>
+        <v>0.07731376161628667</v>
       </c>
       <c r="G6">
-        <v>-0.44918091593580051</v>
+        <v>-0.4491809161493799</v>
       </c>
       <c r="H6">
-        <v>8.7662514620069683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
+        <v>8.766251466233028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="B7">
-        <v>4.7376348738561568E-4</v>
+        <v>0.0004737634873256328</v>
       </c>
       <c r="C7">
-        <v>1.01731197104129E-2</v>
+        <v>0.01017311971009745</v>
       </c>
       <c r="D7">
-        <v>4.2973916880217899E-4</v>
+        <v>0.0004297391169689746</v>
       </c>
       <c r="E7">
-        <v>-8.6668949814692198E-2</v>
+        <v>-0.08666894981793938</v>
       </c>
       <c r="F7">
-        <v>6.4145445946039104E-2</v>
+        <v>0.06414544603118166</v>
       </c>
       <c r="G7">
-        <v>-0.20871636330973181</v>
+        <v>-0.208716361799891</v>
       </c>
       <c r="H7">
-        <v>7.4684183156486874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>7.468418318286241</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
       </c>
       <c r="B8">
-        <v>4.5533960086829628E-4</v>
+        <v>0.0004553398343235218</v>
       </c>
       <c r="C8">
-        <v>1.463973605347656E-2</v>
+        <v>0.01463973685681004</v>
       </c>
       <c r="D8">
-        <v>1.2170035059746449E-3</v>
+        <v>0.001216964730749837</v>
       </c>
       <c r="E8">
-        <v>-0.1106372586969346</v>
+        <v>-0.1106373600292425</v>
       </c>
       <c r="F8">
-        <v>6.8951114584244522E-2</v>
+        <v>0.06895108925140114</v>
       </c>
       <c r="G8">
-        <v>-0.80339170771850854</v>
+        <v>-0.8033923649294306</v>
       </c>
       <c r="H8">
-        <v>8.0442129397019215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
+        <v>8.044216666225321</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
       </c>
       <c r="B9">
-        <v>-1.9149162862908779E-4</v>
+        <v>-0.0001914916302785646</v>
       </c>
       <c r="C9">
-        <v>1.2297486329099419E-2</v>
+        <v>0.01229748632824033</v>
       </c>
       <c r="D9">
-        <v>2.2621410252199331E-4</v>
+        <v>0.0002262142119766608</v>
       </c>
       <c r="E9">
-        <v>-7.937543435527239E-2</v>
+        <v>-0.07937543444248973</v>
       </c>
       <c r="F9">
-        <v>5.6035600978084688E-2</v>
+        <v>0.05603560114543704</v>
       </c>
       <c r="G9">
-        <v>-0.74148090285662371</v>
+        <v>-0.7414809032154843</v>
       </c>
       <c r="H9">
-        <v>8.3376618761674575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
+        <v>8.337661875886161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
       </c>
       <c r="B10">
-        <v>1.2477331499032281E-3</v>
+        <v>0.001247733149981005</v>
       </c>
       <c r="C10">
-        <v>3.8411682940716368E-2</v>
+        <v>0.03841168296008615</v>
       </c>
       <c r="D10">
-        <v>1.67313311459516E-3</v>
+        <v>0.001673133136281812</v>
       </c>
       <c r="E10">
-        <v>-0.46473017535485012</v>
+        <v>-0.4647301753397741</v>
       </c>
       <c r="F10">
-        <v>0.22511895435529539</v>
+        <v>0.2251189543413279</v>
       </c>
       <c r="G10">
-        <v>-0.77128322228204638</v>
+        <v>-0.7712832225517209</v>
       </c>
       <c r="H10">
-        <v>13.94021453355175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
+        <v>13.94021453761601</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
       </c>
       <c r="B11">
-        <v>2.7427951366929432E-4</v>
+        <v>0.0002742795141431068</v>
       </c>
       <c r="C11">
-        <v>1.2813885159889999E-2</v>
+        <v>0.01281388516362226</v>
       </c>
       <c r="D11">
-        <v>5.6481145264708488E-4</v>
+        <v>0.0005648113900464935</v>
       </c>
       <c r="E11">
-        <v>-0.13098349112949309</v>
+        <v>-0.130983491187445</v>
       </c>
       <c r="F11">
-        <v>9.2207965296660532E-2</v>
+        <v>0.09220796534569864</v>
       </c>
       <c r="G11">
-        <v>-0.46383407125835668</v>
+        <v>-0.4638340697933154</v>
       </c>
       <c r="H11">
-        <v>10.76419027202658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
+        <v>10.76419027577651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
       </c>
       <c r="B12">
-        <v>2.3493597162194089E-4</v>
+        <v>0.0002349359716219409</v>
       </c>
       <c r="C12">
-        <v>1.55162137007386E-2</v>
+        <v>0.0155162137007386</v>
       </c>
       <c r="D12">
-        <v>7.7452410400180582E-4</v>
+        <v>0.0007745241040018058</v>
       </c>
       <c r="E12">
         <v>-0.1854610663248373</v>
@@ -825,177 +701,191 @@
         <v>0.1068398411644171</v>
       </c>
       <c r="G12">
-        <v>-0.83231932775313033</v>
+        <v>-0.8323193277531303</v>
       </c>
       <c r="H12">
         <v>14.1890058115066</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="B13">
-        <v>1.124982823114372E-4</v>
+        <v>0.0001124982814440815</v>
       </c>
       <c r="C13">
-        <v>1.0113155484985739E-2</v>
+        <v>0.01011315548511805</v>
       </c>
       <c r="D13">
-        <v>5.8541157774172348E-4</v>
+        <v>0.0005854115777683688</v>
       </c>
       <c r="E13">
         <v>-0.1151170613425148</v>
       </c>
       <c r="F13">
-        <v>8.6664246247247334E-2</v>
+        <v>0.08666424617841351</v>
       </c>
       <c r="G13">
-        <v>-0.56273063205685847</v>
+        <v>-0.5627306342218309</v>
       </c>
       <c r="H13">
-        <v>12.792667001115991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
+        <v>12.79266699720185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>oil</t>
+        </is>
       </c>
       <c r="B14">
-        <v>7.0752037530335773E-4</v>
+        <v>0.0007512763982951773</v>
       </c>
       <c r="C14">
-        <v>2.5292607843036271E-2</v>
+        <v>0.0251776344133243</v>
       </c>
       <c r="D14">
-        <v>1.316982722246784E-3</v>
+        <v>0.001316987665241243</v>
       </c>
       <c r="E14">
-        <v>-0.27992005513024187</v>
+        <v>-0.2799200542262543</v>
       </c>
       <c r="F14">
-        <v>0.31963367225838318</v>
+        <v>0.3196336300150673</v>
       </c>
       <c r="G14">
-        <v>1.10560232458327</v>
+        <v>1.17348306813869</v>
       </c>
       <c r="H14">
-        <v>27.610510603163089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
+        <v>27.84548160684354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="B15">
-        <v>2.2824906231319169E-4</v>
+        <v>0.0002282490622738005</v>
       </c>
       <c r="C15">
-        <v>9.0899854081954393E-3</v>
+        <v>0.009089985409387281</v>
       </c>
       <c r="D15">
-        <v>6.96334231111706E-4</v>
+        <v>0.0006963342311259169</v>
       </c>
       <c r="E15">
-        <v>-0.1317579985597099</v>
+        <v>-0.1317579985859894</v>
       </c>
       <c r="F15">
-        <v>0.1129453085781513</v>
+        <v>0.1129453086079817</v>
       </c>
       <c r="G15">
-        <v>-0.58162476007758024</v>
+        <v>-0.5816247601666238</v>
       </c>
       <c r="H15">
-        <v>34.399112219259763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
+        <v>34.39911222586309</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
       </c>
       <c r="B16">
-        <v>3.1530941871031349E-4</v>
+        <v>0.0003153094184135542</v>
       </c>
       <c r="C16">
-        <v>1.2618743392355591E-2</v>
+        <v>0.0126187433918807</v>
       </c>
       <c r="D16">
-        <v>8.1451956260458758E-4</v>
+        <v>0.0008145195548525663</v>
       </c>
       <c r="E16">
-        <v>-0.13054858703866051</v>
+        <v>-0.1305485870112282</v>
       </c>
       <c r="F16">
-        <v>0.104142874245591</v>
+        <v>0.104142874236949</v>
       </c>
       <c r="G16">
-        <v>-0.41539446550493991</v>
+        <v>-0.4153944648286158</v>
       </c>
       <c r="H16">
-        <v>10.86048060832114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
+        <v>10.86048060966376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Agentina</t>
+        </is>
       </c>
       <c r="B17">
-        <v>1.901644407561296E-3</v>
+        <v>0.001901319286364814</v>
       </c>
       <c r="C17">
-        <v>8.4601852523295357E-2</v>
+        <v>0.02114791192613523</v>
       </c>
       <c r="D17">
-        <v>1.8938233747096691E-3</v>
+        <v>0.001888697925677363</v>
       </c>
       <c r="E17">
-        <v>-2.9820298849173059</v>
+        <v>-0.1563150919362073</v>
       </c>
       <c r="F17">
-        <v>3.0009355919687088</v>
+        <v>0.09774471505391524</v>
       </c>
       <c r="G17">
-        <v>0.24503275269632491</v>
+        <v>-0.3879144919237589</v>
       </c>
       <c r="H17">
-        <v>1172.797349350988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
+        <v>6.973646762929425</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>corn</t>
+        </is>
       </c>
       <c r="B18">
-        <v>1.098157533667903E-4</v>
+        <v>0.0001098157533667903</v>
       </c>
       <c r="C18">
-        <v>1.778276112721008E-2</v>
+        <v>0.01778276112721008</v>
       </c>
       <c r="D18">
-        <v>6.4079142960205004E-4</v>
+        <v>0.00064079142960205</v>
       </c>
       <c r="E18">
-        <v>-0.26862042930028901</v>
+        <v>-0.268620429300289</v>
       </c>
       <c r="F18">
-        <v>8.6177696241052537E-2</v>
+        <v>0.08617769624105254</v>
       </c>
       <c r="G18">
         <v>-1.930899147613061</v>
       </c>
       <c r="H18">
-        <v>28.945275055187722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
+        <v>28.94527505518772</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Aluminium</t>
+        </is>
       </c>
       <c r="B19">
-        <v>2.5816170609812151E-4</v>
+        <v>0.0002581617060981215</v>
       </c>
       <c r="C19">
-        <v>1.2294255210412089E-2</v>
+        <v>0.01229425521041209</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1004,247 +894,265 @@
         <v>-0.2009204145294996</v>
       </c>
       <c r="F19">
-        <v>5.8895369087607292E-2</v>
+        <v>0.05889536908760729</v>
       </c>
       <c r="G19">
         <v>-2.607385689869627</v>
       </c>
       <c r="H19">
-        <v>46.541700492978173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
+        <v>46.54170049297817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
       </c>
       <c r="B20">
-        <v>2.5173453284437522E-4</v>
+        <v>0.0002517345328443752</v>
       </c>
       <c r="C20">
-        <v>1.8319722419507072E-2</v>
+        <v>0.01831972241950707</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-8.2490318144394337E-2</v>
+        <v>-0.08249031814439434</v>
       </c>
       <c r="F20">
-        <v>8.0977004683051135E-2</v>
+        <v>0.08097700468305113</v>
       </c>
       <c r="G20">
-        <v>0.14058718345618609</v>
+        <v>0.1405871834561861</v>
       </c>
       <c r="H20">
-        <v>4.3481718316997728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
+        <v>4.348171831699773</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
       </c>
       <c r="B21">
-        <v>1.154894593075457E-4</v>
+        <v>0.0001163445686803182</v>
       </c>
       <c r="C21">
-        <v>1.025788405596857E-2</v>
+        <v>0.01026274388589693</v>
       </c>
       <c r="D21">
-        <v>3.303303338828556E-4</v>
+        <v>0.0003347863938758522</v>
       </c>
       <c r="E21">
-        <v>-9.8205791361777983E-2</v>
+        <v>-0.09820579166610166</v>
       </c>
       <c r="F21">
-        <v>5.7775084150397227E-2</v>
+        <v>0.05777508425392419</v>
       </c>
       <c r="G21">
-        <v>-0.68381505843702028</v>
+        <v>-0.6838239112878055</v>
       </c>
       <c r="H21">
-        <v>9.5581426065138579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>28</v>
+        <v>9.550481509338937</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ethereum</t>
+        </is>
       </c>
       <c r="B22">
-        <v>8.0442766977786612E-4</v>
+        <v>0.0008044276702267163</v>
       </c>
       <c r="C22">
-        <v>5.0730175547595492E-2</v>
+        <v>0.05073017548896216</v>
       </c>
       <c r="D22">
-        <v>8.1033287123855047E-4</v>
+        <v>0.0008103326602286742</v>
       </c>
       <c r="E22">
-        <v>-0.55073174413121784</v>
+        <v>-0.550731743822011</v>
       </c>
       <c r="F22">
-        <v>0.2347406112748249</v>
+        <v>0.2347406110576058</v>
       </c>
       <c r="G22">
-        <v>-0.91476591837405741</v>
+        <v>-0.9147659253252711</v>
       </c>
       <c r="H22">
-        <v>12.780530243164799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
+        <v>12.78053027868678</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Southkorea</t>
+        </is>
       </c>
       <c r="B23">
-        <v>3.4061637227997239E-4</v>
+        <v>0.0003406163740453857</v>
       </c>
       <c r="C23">
-        <v>1.0318454573246609E-2</v>
+        <v>0.01031845456936507</v>
       </c>
       <c r="D23">
-        <v>5.5469636475891093E-4</v>
+        <v>0.0005546963980318509</v>
       </c>
       <c r="E23">
-        <v>-8.7669717954606874E-2</v>
+        <v>-0.08766971830380843</v>
       </c>
       <c r="F23">
-        <v>8.2512683501772877E-2</v>
+        <v>0.08251268335953554</v>
       </c>
       <c r="G23">
-        <v>-0.25347642339866061</v>
+        <v>-0.2534764263199968</v>
       </c>
       <c r="H23">
-        <v>10.068076723626289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
+        <v>10.06807677332305</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
       </c>
       <c r="B24">
-        <v>8.0550752471053802E-5</v>
+        <v>8.383717453616578e-05</v>
       </c>
       <c r="C24">
-        <v>1.9798965496057089E-2</v>
+        <v>0.01979787669778703</v>
       </c>
       <c r="D24">
-        <v>-5.072280355888914E-4</v>
+        <v>-0.0005083541320880514</v>
       </c>
       <c r="E24">
-        <v>-0.123658357527848</v>
+        <v>-0.1236583491603631</v>
       </c>
       <c r="F24">
-        <v>0.10456717963843019</v>
+        <v>0.1045672068646599</v>
       </c>
       <c r="G24">
-        <v>-0.2260854230789156</v>
+        <v>-0.2260635116166339</v>
       </c>
       <c r="H24">
-        <v>6.0390183749377613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
+        <v>6.044771989617354</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
       </c>
       <c r="B25">
-        <v>1.050852491446783E-4</v>
+        <v>0.00010508524924778</v>
       </c>
       <c r="C25">
-        <v>9.6078165529475609E-3</v>
+        <v>0.00960781655296508</v>
       </c>
       <c r="D25">
-        <v>1.330539523953789E-4</v>
+        <v>0.0001330539414681198</v>
       </c>
       <c r="E25">
-        <v>-5.9884398972407382E-2</v>
+        <v>-0.05988439896175102</v>
       </c>
       <c r="F25">
-        <v>4.1805948897861711E-2</v>
+        <v>0.04180594889786171</v>
       </c>
       <c r="G25">
-        <v>-0.35185016569995881</v>
+        <v>-0.351850165550674</v>
       </c>
       <c r="H25">
-        <v>6.1026962484176011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>32</v>
+        <v>6.102696247120441</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tehther</t>
+        </is>
       </c>
       <c r="B26">
-        <v>-4.1849486685184844E-6</v>
+        <v>-4.184942864606267e-06</v>
       </c>
       <c r="C26">
-        <v>4.4016816490586846E-3</v>
+        <v>0.004401682088470169</v>
       </c>
       <c r="D26">
-        <v>-5.9990641459617302E-6</v>
+        <v>-5.960190220680574e-06</v>
       </c>
       <c r="E26">
-        <v>-5.2569703281064813E-2</v>
+        <v>-0.05256973240306428</v>
       </c>
       <c r="F26">
-        <v>5.6606283924814732E-2</v>
+        <v>0.05660625606298038</v>
       </c>
       <c r="G26">
-        <v>0.72538559123247814</v>
+        <v>0.7253831527643552</v>
       </c>
       <c r="H26">
-        <v>50.508251981262433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>33</v>
+        <v>50.5082371963386</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="B27">
-        <v>3.8597146446477131E-4</v>
+        <v>0.0003944816478300766</v>
       </c>
       <c r="C27">
-        <v>1.3049359025495569E-2</v>
+        <v>0.01308208387107932</v>
       </c>
       <c r="D27">
-        <v>3.9772018811046189E-4</v>
+        <v>0.0004151512548959957</v>
       </c>
       <c r="E27">
-        <v>-0.11418922460150149</v>
+        <v>-0.1141892248734528</v>
       </c>
       <c r="F27">
-        <v>0.18261945405023641</v>
+        <v>0.1826194541488739</v>
       </c>
       <c r="G27">
-        <v>0.70857033208430686</v>
+        <v>0.6951576694348846</v>
       </c>
       <c r="H27">
-        <v>29.884710467126851</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
+        <v>29.46078167558386</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
       <c r="B28">
-        <v>4.6168251073580357E-4</v>
+        <v>0.0004616825117487357</v>
       </c>
       <c r="C28">
-        <v>1.09718189600552E-2</v>
+        <v>0.01097181896440387</v>
       </c>
       <c r="D28">
-        <v>6.6584968018856827E-4</v>
+        <v>0.0006658494976647944</v>
       </c>
       <c r="E28">
-        <v>-9.9944852300803078E-2</v>
+        <v>-0.09994485240247286</v>
       </c>
       <c r="F28">
-        <v>8.9683232620525466E-2</v>
+        <v>0.08968323251796306</v>
       </c>
       <c r="G28">
-        <v>-0.28739798920299131</v>
+        <v>-0.2873979901601466</v>
       </c>
       <c r="H28">
-        <v>11.958111210397851</v>
+        <v>11.95811121264711</v>
       </c>
     </row>
   </sheetData>
